--- a/data/FOREX_3A.xlsx
+++ b/data/FOREX_3A.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="617">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator   </t>
   </si>
@@ -305,9 +305,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Cabo Verde</t>
   </si>
   <si>
@@ -674,9 +671,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -764,9 +758,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Honduras</t>
   </si>
   <si>
@@ -1112,9 +1103,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -1139,9 +1127,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Myanmar</t>
   </si>
   <si>
@@ -1229,9 +1214,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Niger</t>
   </si>
   <si>
@@ -1289,9 +1271,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Paraguay</t>
   </si>
   <si>
@@ -1523,9 +1502,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Somalia</t>
   </si>
   <si>
@@ -1703,9 +1679,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Trinidad and Tobago</t>
   </si>
   <si>
@@ -1763,9 +1736,6 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Uzbekistan, Rep. of</t>
   </si>
   <si>
@@ -1829,34 +1799,22 @@
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Yemen, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Zambia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
     <t>Units</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>...</t>
@@ -4471,17 +4429,17 @@
       <c r="T36" s="22">
         <v>2803.3385423042901</v>
       </c>
-      <c r="U36" s="22" t="s">
-        <v>97</v>
+      <c r="U36" s="22">
+        <v>2807.7251981475001</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -4535,16 +4493,16 @@
         <v>129.31454743164099</v>
       </c>
       <c r="U37" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>101</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>102</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -4604,10 +4562,10 @@
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>104</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -4667,10 +4625,10 @@
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>106</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -4730,10 +4688,10 @@
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -4793,10 +4751,10 @@
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>110</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -4856,10 +4814,10 @@
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>112</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -4919,10 +4877,10 @@
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>113</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>114</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -4982,10 +4940,10 @@
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="17" t="s">
         <v>115</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>116</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -5045,10 +5003,10 @@
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="C46" s="17" t="s">
-        <v>118</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -5108,10 +5066,10 @@
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="17" t="s">
         <v>119</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -5171,10 +5129,10 @@
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="17" t="s">
         <v>121</v>
-      </c>
-      <c r="C48" s="17" t="s">
-        <v>122</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -5234,10 +5192,10 @@
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="C49" s="17" t="s">
-        <v>124</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -5297,10 +5255,10 @@
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -5360,10 +5318,10 @@
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="17" t="s">
         <v>127</v>
-      </c>
-      <c r="C51" s="17" t="s">
-        <v>128</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -5423,10 +5381,10 @@
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>129</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>130</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -5486,10 +5444,10 @@
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>132</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -5549,10 +5507,10 @@
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -5612,28 +5570,28 @@
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="D55" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E55" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D55" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E55" s="19" t="s">
+      <c r="F55" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="G55" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="G55" s="20" t="s">
+      <c r="H55" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="H55" s="20" t="s">
+      <c r="I55" s="20" t="s">
         <v>140</v>
-      </c>
-      <c r="I55" s="20" t="s">
-        <v>141</v>
       </c>
       <c r="J55" s="20">
         <v>2.7566621902990098</v>
@@ -5675,28 +5633,28 @@
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="D56" s="18" t="str">
+        <v/>
+      </c>
+      <c r="E56" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="18" t="str">
-        <v/>
-      </c>
-      <c r="E56" s="21" t="s">
+      <c r="F56" s="22" t="s">
         <v>144</v>
       </c>
-      <c r="F56" s="22" t="s">
+      <c r="G56" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="G56" s="22" t="s">
+      <c r="H56" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="H56" s="22" t="s">
+      <c r="I56" s="22" t="s">
         <v>147</v>
-      </c>
-      <c r="I56" s="22" t="s">
-        <v>148</v>
       </c>
       <c r="J56" s="22">
         <v>2.7566621902990098</v>
@@ -5738,10 +5696,10 @@
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>150</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -5756,55 +5714,55 @@
         <v>0.62860422537546701</v>
       </c>
       <c r="H57" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="I57" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="I57" s="20" t="s">
+      <c r="J57" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="J57" s="20" t="s">
+      <c r="K57" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="K57" s="20" t="s">
+      <c r="L57" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="L57" s="20" t="s">
+      <c r="M57" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="M57" s="20" t="s">
+      <c r="N57" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="N57" s="20" t="s">
+      <c r="O57" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="O57" s="20" t="s">
+      <c r="P57" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="P57" s="20" t="s">
+      <c r="Q57" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="Q57" s="20" t="s">
+      <c r="R57" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="R57" s="20" t="s">
+      <c r="S57" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="S57" s="20" t="s">
+      <c r="T57" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="T57" s="20" t="s">
+      <c r="U57" s="20" t="s">
         <v>163</v>
-      </c>
-      <c r="U57" s="20" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" s="17" t="s">
         <v>165</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>166</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -5864,10 +5822,10 @@
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="17" t="s">
         <v>167</v>
-      </c>
-      <c r="C59" s="17" t="s">
-        <v>168</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -5927,10 +5885,10 @@
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" s="17" t="s">
         <v>169</v>
-      </c>
-      <c r="C60" s="17" t="s">
-        <v>170</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -5990,10 +5948,10 @@
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="17" t="s">
         <v>171</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>172</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -6053,10 +6011,10 @@
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C62" s="17" t="s">
         <v>173</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>174</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -6116,10 +6074,10 @@
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="17" t="s">
         <v>175</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>176</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -6179,10 +6137,10 @@
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C64" s="17" t="s">
         <v>177</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>178</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -6242,10 +6200,10 @@
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C65" s="17" t="s">
         <v>179</v>
-      </c>
-      <c r="C65" s="17" t="s">
-        <v>180</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -6305,10 +6263,10 @@
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C66" s="17" t="s">
         <v>181</v>
-      </c>
-      <c r="C66" s="17" t="s">
-        <v>182</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -6368,10 +6326,10 @@
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="17" t="s">
         <v>183</v>
-      </c>
-      <c r="C67" s="17" t="s">
-        <v>184</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -6431,10 +6389,10 @@
     <row r="68" ht="14.250000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" s="17" t="s">
         <v>185</v>
-      </c>
-      <c r="C68" s="17" t="s">
-        <v>186</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -6458,46 +6416,46 @@
         <v>18.034884867002599</v>
       </c>
       <c r="K68" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="L68" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="L68" s="22" t="s">
+      <c r="M68" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="M68" s="22" t="s">
+      <c r="N68" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="N68" s="22" t="s">
+      <c r="O68" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="O68" s="22" t="s">
+      <c r="P68" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="P68" s="22" t="s">
+      <c r="Q68" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="Q68" s="22" t="s">
+      <c r="R68" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="R68" s="22" t="s">
+      <c r="S68" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="S68" s="22" t="s">
+      <c r="T68" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="T68" s="22" t="s">
+      <c r="U68" s="22" t="s">
         <v>196</v>
-      </c>
-      <c r="U68" s="22" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="17" t="s">
         <v>198</v>
-      </c>
-      <c r="C69" s="17" t="s">
-        <v>199</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
@@ -6557,10 +6515,10 @@
     <row r="70" ht="24.000000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="17" t="s">
         <v>200</v>
-      </c>
-      <c r="C70" s="17" t="s">
-        <v>201</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -6614,16 +6572,16 @@
         <v>56.431014741147699</v>
       </c>
       <c r="U70" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="17" t="s">
         <v>203</v>
-      </c>
-      <c r="C71" s="17" t="s">
-        <v>204</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -6683,10 +6641,10 @@
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="17" t="s">
         <v>205</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>206</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -6728,28 +6686,28 @@
         <v>9.4813030338879205</v>
       </c>
       <c r="Q72" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="R72" s="22" t="s">
         <v>207</v>
       </c>
-      <c r="R72" s="22" t="s">
+      <c r="S72" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="S72" s="22" t="s">
+      <c r="T72" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="T72" s="22" t="s">
+      <c r="U72" s="22" t="s">
         <v>210</v>
-      </c>
-      <c r="U72" s="22" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="C73" s="17" t="s">
-        <v>213</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -6809,10 +6767,10 @@
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="17" t="s">
         <v>214</v>
-      </c>
-      <c r="C74" s="17" t="s">
-        <v>215</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -6872,10 +6830,10 @@
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C75" s="17" t="s">
         <v>216</v>
-      </c>
-      <c r="C75" s="17" t="s">
-        <v>217</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -6935,10 +6893,10 @@
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="17" t="s">
         <v>218</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>219</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -6991,17 +6949,17 @@
       <c r="T76" s="22">
         <v>74.375463586412494</v>
       </c>
-      <c r="U76" s="22" t="s">
-        <v>220</v>
+      <c r="U76" s="22">
+        <v>73.632631810248697</v>
       </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -7061,10 +7019,10 @@
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -7118,16 +7076,16 @@
         <v>8.2962344180955299</v>
       </c>
       <c r="U78" s="22" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -7187,10 +7145,10 @@
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -7232,28 +7190,28 @@
         <v>9.4813030338879205</v>
       </c>
       <c r="Q80" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="R80" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="S80" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="R80" s="22" t="s">
+      <c r="T80" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="S80" s="22" t="s">
+      <c r="U80" s="22" t="s">
         <v>232</v>
-      </c>
-      <c r="T80" s="22" t="s">
-        <v>233</v>
-      </c>
-      <c r="U80" s="22" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -7313,10 +7271,10 @@
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -7376,10 +7334,10 @@
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -7439,10 +7397,10 @@
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -7496,16 +7454,16 @@
         <v>14388.284424216699</v>
       </c>
       <c r="U84" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -7565,10 +7523,10 @@
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -7628,10 +7586,10 @@
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -7684,17 +7642,17 @@
       <c r="T87" s="20">
         <v>103.930492643829</v>
       </c>
-      <c r="U87" s="20" t="s">
-        <v>250</v>
+      <c r="U87" s="20">
+        <v>139.772817928237</v>
       </c>
     </row>
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -7754,10 +7712,10 @@
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -7817,10 +7775,10 @@
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -7880,10 +7838,10 @@
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -7943,10 +7901,10 @@
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -8006,10 +7964,10 @@
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -8069,10 +8027,10 @@
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -8126,16 +8084,16 @@
         <v>2088.3892757610001</v>
       </c>
       <c r="U94" s="22" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -8195,10 +8153,10 @@
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -8258,10 +8216,10 @@
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -8315,16 +8273,16 @@
         <v>204.09900405435599</v>
       </c>
       <c r="U97" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -8384,10 +8342,10 @@
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -8447,10 +8405,10 @@
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
@@ -8510,10 +8468,10 @@
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -8573,10 +8531,10 @@
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -8588,34 +8546,34 @@
         <v>104.400525938897</v>
       </c>
       <c r="G102" s="22">
-        <v>99.034152323280907</v>
+        <v>99.042053564091702</v>
       </c>
       <c r="H102" s="22">
-        <v>119.694348904945</v>
+        <v>119.696060315588</v>
       </c>
       <c r="I102" s="22">
         <v>118.86229563194399</v>
       </c>
       <c r="J102" s="22">
-        <v>124.357805512092</v>
+        <v>124.360800024093</v>
       </c>
       <c r="K102" s="22">
-        <v>130.60506361373899</v>
+        <v>130.60214660867501</v>
       </c>
       <c r="L102" s="22">
-        <v>132.17511050453999</v>
+        <v>132.176340040452</v>
       </c>
       <c r="M102" s="22">
-        <v>132.917328224643</v>
+        <v>132.916900447096</v>
       </c>
       <c r="N102" s="22">
-        <v>131.11685481814601</v>
+        <v>131.11926949318899</v>
       </c>
       <c r="O102" s="22">
-        <v>141.774095429722</v>
+        <v>141.776035452531</v>
       </c>
       <c r="P102" s="22">
-        <v>137.780562038222</v>
+        <v>137.77496065589</v>
       </c>
       <c r="Q102" s="22">
         <v>147.01575044990801</v>
@@ -8636,10 +8594,10 @@
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -8699,10 +8657,10 @@
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -8762,10 +8720,10 @@
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -8825,10 +8783,10 @@
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -8888,10 +8846,10 @@
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -8951,10 +8909,10 @@
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -9008,16 +8966,16 @@
         <v>13357.0497540742</v>
       </c>
       <c r="U108" s="22" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -9050,37 +9008,37 @@
         <v>0.79309957172623102</v>
       </c>
       <c r="N109" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="O109" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="P109" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q109" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="O109" s="20" t="s">
+      <c r="R109" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="P109" s="20" t="s">
+      <c r="S109" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="Q109" s="20" t="s">
+      <c r="T109" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="R109" s="20" t="s">
+      <c r="U109" s="20" t="s">
         <v>302</v>
-      </c>
-      <c r="S109" s="20" t="s">
-        <v>303</v>
-      </c>
-      <c r="T109" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="U109" s="20" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -9140,10 +9098,10 @@
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -9194,19 +9152,19 @@
         <v>19.394876229183101</v>
       </c>
       <c r="T111" s="20">
-        <v>21.0228786645831</v>
+        <v>21.151708284814401</v>
       </c>
       <c r="U111" s="20">
-        <v>21.264029178732301</v>
+        <v>22.261110131716599</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -9260,16 +9218,16 @@
         <v>236.520887493429</v>
       </c>
       <c r="U112" s="22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -9320,19 +9278,19 @@
         <v>1.9308393613005199</v>
       </c>
       <c r="T113" s="20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="U113" s="20" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -9368,34 +9326,34 @@
         <v>4.1127228262129396</v>
       </c>
       <c r="O114" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="P114" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q114" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="R114" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="P114" s="22" t="s">
+      <c r="S114" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="Q114" s="22" t="s">
+      <c r="T114" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="R114" s="22" t="s">
+      <c r="U114" s="22" t="s">
         <v>322</v>
-      </c>
-      <c r="S114" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="T114" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="U114" s="22" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -9455,10 +9413,10 @@
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -9512,16 +9470,16 @@
         <v>1113.4895068829701</v>
       </c>
       <c r="U116" s="22" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -9581,10 +9539,10 @@
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -9644,10 +9602,10 @@
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -9707,10 +9665,10 @@
     <row r="120" ht="14.250000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -9725,55 +9683,55 @@
         <v>0.46083466862190797</v>
       </c>
       <c r="H120" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="I120" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="J120" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="K120" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="I120" s="22" t="s">
+      <c r="L120" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="J120" s="22" t="s">
+      <c r="M120" s="22" t="s">
         <v>341</v>
       </c>
-      <c r="K120" s="22" t="s">
+      <c r="N120" s="22" t="s">
         <v>342</v>
       </c>
-      <c r="L120" s="22" t="s">
+      <c r="O120" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="M120" s="22" t="s">
+      <c r="P120" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="N120" s="22" t="s">
+      <c r="Q120" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="O120" s="22" t="s">
+      <c r="R120" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="P120" s="22" t="s">
+      <c r="S120" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="Q120" s="22" t="s">
+      <c r="T120" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="R120" s="22" t="s">
+      <c r="U120" s="22" t="s">
         <v>349</v>
-      </c>
-      <c r="S120" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="T120" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="U120" s="22" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -9827,16 +9785,16 @@
         <v>52.814644649762698</v>
       </c>
       <c r="U121" s="20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -9896,10 +9854,10 @@
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -9959,10 +9917,10 @@
     <row r="124" ht="24.000000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -10022,10 +9980,10 @@
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -10085,10 +10043,10 @@
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -10141,17 +10099,17 @@
       <c r="T126" s="22">
         <v>4104.6066986886399</v>
       </c>
-      <c r="U126" s="22" t="s">
-        <v>366</v>
+      <c r="U126" s="22">
+        <v>3987.9187059915198</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -10211,10 +10169,10 @@
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -10274,10 +10232,10 @@
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -10337,10 +10295,10 @@
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -10393,17 +10351,17 @@
       <c r="T130" s="22">
         <v>107.876108106551</v>
       </c>
-      <c r="U130" s="22" t="s">
-        <v>375</v>
+      <c r="U130" s="22">
+        <v>89.336074671130405</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -10457,16 +10415,16 @@
         <v>1914.26081821652</v>
       </c>
       <c r="U131" s="20" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -10526,10 +10484,10 @@
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -10589,10 +10547,10 @@
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -10652,10 +10610,10 @@
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -10676,49 +10634,49 @@
         <v>2.8061660403743001</v>
       </c>
       <c r="J135" s="20" t="s">
+        <v>382</v>
+      </c>
+      <c r="K135" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="L135" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="M135" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="N135" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="O135" s="20" t="s">
         <v>387</v>
       </c>
-      <c r="K135" s="20" t="s">
+      <c r="P135" s="20" t="s">
         <v>388</v>
       </c>
-      <c r="L135" s="20" t="s">
+      <c r="Q135" s="20" t="s">
         <v>389</v>
       </c>
-      <c r="M135" s="20" t="s">
+      <c r="R135" s="20" t="s">
         <v>390</v>
       </c>
-      <c r="N135" s="20" t="s">
+      <c r="S135" s="20" t="s">
         <v>391</v>
       </c>
-      <c r="O135" s="20" t="s">
+      <c r="T135" s="20" t="s">
         <v>392</v>
       </c>
-      <c r="P135" s="20" t="s">
+      <c r="U135" s="20" t="s">
         <v>393</v>
-      </c>
-      <c r="Q135" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="R135" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="S135" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="T135" s="20" t="s">
-        <v>397</v>
-      </c>
-      <c r="U135" s="20" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -10778,10 +10736,10 @@
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -10841,10 +10799,10 @@
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -10897,17 +10855,17 @@
       <c r="T138" s="22">
         <v>50.1566291956821</v>
       </c>
-      <c r="U138" s="22" t="s">
-        <v>405</v>
+      <c r="U138" s="22">
+        <v>49.714972714918098</v>
       </c>
     </row>
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -10967,10 +10925,10 @@
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -11024,16 +10982,16 @@
         <v>548.742285562029</v>
       </c>
       <c r="U140" s="22" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -11093,10 +11051,10 @@
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -11156,10 +11114,10 @@
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -11219,10 +11177,10 @@
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -11282,10 +11240,10 @@
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -11345,10 +11303,10 @@
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -11408,10 +11366,10 @@
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -11464,17 +11422,17 @@
       <c r="T147" s="20">
         <v>5.0535735650598896</v>
       </c>
-      <c r="U147" s="20" t="s">
-        <v>425</v>
+      <c r="U147" s="20">
+        <v>4.9108555714675397</v>
       </c>
     </row>
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -11534,10 +11492,10 @@
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -11597,10 +11555,10 @@
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -11660,10 +11618,10 @@
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -11723,10 +11681,10 @@
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -11786,10 +11744,10 @@
     <row r="153" ht="14.250000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -11849,10 +11807,10 @@
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -11912,10 +11870,10 @@
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -11975,10 +11933,10 @@
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -12038,10 +11996,10 @@
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -12101,10 +12059,10 @@
     <row r="158" ht="24.000000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -12158,16 +12116,16 @@
         <v>28.732635763306298</v>
       </c>
       <c r="U158" s="22" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -12227,10 +12185,10 @@
     <row r="160" ht="14.250000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -12290,10 +12248,10 @@
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -12353,10 +12311,10 @@
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -12416,10 +12374,10 @@
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -12473,16 +12431,16 @@
         <v>14594.751661709701</v>
       </c>
       <c r="U163" s="20" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -12542,28 +12500,28 @@
     <row r="165" ht="24.000000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
       </c>
       <c r="E165" s="19" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F165" s="20" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="G165" s="20" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="H165" s="20" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="I165" s="20" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="J165" s="20">
         <v>2.7566621902990098</v>
@@ -12605,10 +12563,10 @@
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -12626,52 +12584,52 @@
         <v>32.9386649251352</v>
       </c>
       <c r="I166" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="J166" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="K166" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="L166" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="M166" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="N166" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="O166" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="P166" s="22" t="s">
         <v>471</v>
       </c>
-      <c r="J166" s="22" t="s">
+      <c r="Q166" s="22" t="s">
         <v>472</v>
       </c>
-      <c r="K166" s="22" t="s">
+      <c r="R166" s="22" t="s">
         <v>473</v>
       </c>
-      <c r="L166" s="22" t="s">
+      <c r="S166" s="22" t="s">
         <v>474</v>
       </c>
-      <c r="M166" s="22" t="s">
+      <c r="T166" s="22" t="s">
         <v>475</v>
       </c>
-      <c r="N166" s="22" t="s">
+      <c r="U166" s="22" t="s">
         <v>476</v>
-      </c>
-      <c r="O166" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="P166" s="22" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q166" s="22" t="s">
-        <v>479</v>
-      </c>
-      <c r="R166" s="22" t="s">
-        <v>480</v>
-      </c>
-      <c r="S166" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="T166" s="22" t="s">
-        <v>482</v>
-      </c>
-      <c r="U166" s="22" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -12683,58 +12641,58 @@
         <v>273.69794017294601</v>
       </c>
       <c r="G167" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="H167" s="20" t="s">
+        <v>480</v>
+      </c>
+      <c r="I167" s="20" t="s">
+        <v>481</v>
+      </c>
+      <c r="J167" s="20" t="s">
+        <v>482</v>
+      </c>
+      <c r="K167" s="20" t="s">
+        <v>483</v>
+      </c>
+      <c r="L167" s="20" t="s">
+        <v>484</v>
+      </c>
+      <c r="M167" s="20" t="s">
+        <v>485</v>
+      </c>
+      <c r="N167" s="20" t="s">
         <v>486</v>
       </c>
-      <c r="H167" s="20" t="s">
+      <c r="O167" s="20" t="s">
         <v>487</v>
       </c>
-      <c r="I167" s="20" t="s">
+      <c r="P167" s="20" t="s">
         <v>488</v>
       </c>
-      <c r="J167" s="20" t="s">
+      <c r="Q167" s="20" t="s">
         <v>489</v>
       </c>
-      <c r="K167" s="20" t="s">
+      <c r="R167" s="20" t="s">
         <v>490</v>
       </c>
-      <c r="L167" s="20" t="s">
+      <c r="S167" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="M167" s="20" t="s">
+      <c r="T167" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="N167" s="20" t="s">
+      <c r="U167" s="20" t="s">
         <v>493</v>
-      </c>
-      <c r="O167" s="20" t="s">
-        <v>494</v>
-      </c>
-      <c r="P167" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q167" s="20" t="s">
-        <v>496</v>
-      </c>
-      <c r="R167" s="20" t="s">
-        <v>497</v>
-      </c>
-      <c r="S167" s="20" t="s">
-        <v>498</v>
-      </c>
-      <c r="T167" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="U167" s="20" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -12787,32 +12745,32 @@
       <c r="T168" s="22">
         <v>11.587035125036801</v>
       </c>
-      <c r="U168" s="22" t="s">
-        <v>503</v>
+      <c r="U168" s="22">
+        <v>11.3327436264636</v>
       </c>
     </row>
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
       </c>
       <c r="E169" s="19" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F169" s="20" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="G169" s="20" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="H169" s="20" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="I169" s="20">
         <v>49774.174179823502</v>
@@ -12842,25 +12800,25 @@
         <v>33616.688574598302</v>
       </c>
       <c r="R169" s="20" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="S169" s="20" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="T169" s="20" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="U169" s="20" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -12920,31 +12878,31 @@
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
       </c>
       <c r="E171" s="19" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="F171" s="20" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="G171" s="20" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="H171" s="20" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="I171" s="20" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="J171" s="20" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="K171" s="20">
         <v>4.5290341796230296</v>
@@ -12983,10 +12941,10 @@
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -13040,16 +12998,16 @@
         <v>268.47785227166298</v>
       </c>
       <c r="U172" s="22" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -13109,10 +13067,10 @@
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -13172,10 +13130,10 @@
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -13235,10 +13193,10 @@
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -13292,16 +13250,16 @@
         <v>79.214765632313899</v>
       </c>
       <c r="U176" s="22" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -13361,10 +13319,10 @@
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -13424,10 +13382,10 @@
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -13487,10 +13445,10 @@
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -13535,25 +13493,25 @@
         <v>621.63459279017798</v>
       </c>
       <c r="R180" s="22" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="S180" s="22" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="T180" s="22" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="U180" s="22" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -13613,10 +13571,10 @@
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -13676,10 +13634,10 @@
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -13733,16 +13691,16 @@
         <v>3310.4064459001302</v>
       </c>
       <c r="U183" s="20" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -13802,10 +13760,10 @@
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -13865,10 +13823,10 @@
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -13928,10 +13886,10 @@
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -13984,17 +13942,17 @@
       <c r="T187" s="20">
         <v>3.27408153226204</v>
       </c>
-      <c r="U187" s="20" t="s">
-        <v>563</v>
+      <c r="U187" s="20">
+        <v>3.1983405801376801</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -14054,10 +14012,10 @@
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -14117,10 +14075,10 @@
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -14174,16 +14132,16 @@
         <v>10.5817964468577</v>
       </c>
       <c r="U190" s="22" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -14243,10 +14201,10 @@
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -14306,10 +14264,10 @@
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -14369,10 +14327,10 @@
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -14432,10 +14390,10 @@
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -14495,10 +14453,10 @@
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
@@ -14551,44 +14509,44 @@
       <c r="T196" s="22">
         <v>60.9809668522213</v>
       </c>
-      <c r="U196" s="22" t="s">
-        <v>583</v>
+      <c r="U196" s="22">
+        <v>62.554846583521503</v>
       </c>
     </row>
     <row r="197" ht="14.250000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
       </c>
       <c r="E197" s="19" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="F197" s="20" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="G197" s="20" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="H197" s="20" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="I197" s="20" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="J197" s="20" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="K197" s="20" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="L197" s="20" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="M197" s="20">
         <v>3391.3861686514701</v>
@@ -14621,10 +14579,10 @@
     <row r="198" ht="14.250000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -14678,16 +14636,16 @@
         <v>155.116913792731</v>
       </c>
       <c r="U198" s="22" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="199" ht="14.250000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="16" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="D199" s="18" t="str">
         <v/>
@@ -14732,25 +14690,25 @@
         <v>14.205738976132899</v>
       </c>
       <c r="R199" s="20" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="S199" s="20" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="T199" s="20" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="U199" s="20" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="200" ht="14.250000" customHeight="1">
       <c r="A200" s="1"/>
       <c r="B200" s="16" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="C200" s="17" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="D200" s="18" t="str">
         <v/>
@@ -14803,17 +14761,17 @@
       <c r="T200" s="22">
         <v>33314.849888019096</v>
       </c>
-      <c r="U200" s="22" t="s">
-        <v>605</v>
+      <c r="U200" s="22">
+        <v>32393.599377460701</v>
       </c>
     </row>
     <row r="201" ht="14.250000" customHeight="1">
       <c r="A201" s="1"/>
       <c r="B201" s="16" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="D201" s="18" t="str">
         <v/>
@@ -14861,22 +14819,22 @@
         <v>298.86720026703199</v>
       </c>
       <c r="S201" s="20">
-        <v>834.11147010551895</v>
+        <v>846.28925668976399</v>
       </c>
       <c r="T201" s="20">
-        <v>1169.3779720539901</v>
-      </c>
-      <c r="U201" s="20" t="s">
-        <v>608</v>
+        <v>963.53960378214504</v>
+      </c>
+      <c r="U201" s="20">
+        <v>1332.4133336505699</v>
       </c>
     </row>
     <row r="202" ht="14.250000" customHeight="1">
       <c r="A202" s="1"/>
       <c r="B202" s="16" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="C202" s="17" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="D202" s="18" t="str">
         <v/>
@@ -14929,17 +14887,17 @@
       <c r="T202" s="22">
         <v>30.4847223522465</v>
       </c>
-      <c r="U202" s="22" t="s">
-        <v>611</v>
+      <c r="U202" s="22">
+        <v>23.335865431851701</v>
       </c>
     </row>
     <row r="203" ht="14.250000" customHeight="1">
       <c r="A203" s="1"/>
       <c r="B203" s="16" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="D203" s="18" t="str">
         <v/>
@@ -14957,34 +14915,34 @@
         <v>7547320.9321095496</v>
       </c>
       <c r="I203" s="20" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="J203" s="20" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="K203" s="20" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="L203" s="20" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="M203" s="20" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="N203" s="20" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="O203" s="20" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="P203" s="20" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="Q203" s="20" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="R203" s="20" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="S203" s="20">
         <v>23.194686630980499</v>
@@ -14992,17 +14950,17 @@
       <c r="T203" s="20">
         <v>117.79466092479601</v>
       </c>
-      <c r="U203" s="20" t="s">
-        <v>624</v>
+      <c r="U203" s="20">
+        <v>152.088263985791</v>
       </c>
     </row>
     <row r="204" ht="24.000000" customHeight="1">
       <c r="A204" s="1"/>
       <c r="B204" s="16" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="C204" s="17" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="D204" s="18" t="str">
         <v/>
@@ -15062,10 +15020,10 @@
     <row r="205" ht="24.000000" customHeight="1">
       <c r="A205" s="1"/>
       <c r="B205" s="16" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="D205" s="18" t="str">
         <v/>
@@ -15125,10 +15083,10 @@
     <row r="206" ht="24.000000" customHeight="1">
       <c r="A206" s="1"/>
       <c r="B206" s="23" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="C206" s="24" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="D206" s="25" t="str">
         <v/>
